--- a/excel/类型1分析.xlsx
+++ b/excel/类型1分析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\G\exercise\github\2022_model\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D76A52-21A9-429C-AF6A-92EA27DAE9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22293990-3F48-43A0-A8F7-CBB064CB85A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94D1BAF7-9E17-4D8E-B66A-234C10CF02B9}"/>
+    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="9420" xr2:uid="{94D1BAF7-9E17-4D8E-B66A-234C10CF02B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>文物重复数</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -52,6 +52,22 @@
   </si>
   <si>
     <t>表面风化</t>
+  </si>
+  <si>
+    <t>深蓝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深绿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">浅蓝 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝绿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -466,7 +482,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -498,8 +514,8 @@
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E2" s="3">
         <v>2</v>
@@ -515,24 +531,24 @@
       <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="3">
-        <v>5</v>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="E3" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>5</v>
+      <c r="A4" s="4">
+        <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="3">
@@ -540,42 +556,42 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>6</v>
+      <c r="A5" s="2">
+        <v>5</v>
       </c>
       <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3">
         <v>2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="3">
-        <v>7</v>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" s="3">
         <v>3</v>
@@ -583,8 +599,8 @@
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="3">
-        <v>6</v>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E7" s="3">
         <v>2</v>
